--- a/ready_coding/Artur_2020-03-23.xlsx
+++ b/ready_coding/Artur_2020-03-23.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nailc\Documents\coronavirus_data\ready_coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nailc\Documents\coronavirus_cases\ready_coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8212F0B-C9B2-450D-A1DA-2DCC57A1B2D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AF98BF-B81A-4AAF-A4EB-D47FD343667A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
   <si>
     <t>country_id</t>
   </si>
@@ -188,42 +188,12 @@
     <t>measure_n</t>
   </si>
   <si>
-    <t>Мера, предпринятая государством. n обозначает порядковый номер меры даже если она была одна. Порядковый номер в данном случае не важен, поскольку определяется столбцом start_date_n, где n соответствует по номеру.</t>
-  </si>
-  <si>
     <t>start_date_n</t>
   </si>
   <si>
-    <t>Дата начала действия measure_n.</t>
-  </si>
-  <si>
-    <t>Записывается в формате yyyy-mm-dd.</t>
-  </si>
-  <si>
     <t>end_date_n</t>
   </si>
   <si>
-    <t>Дата фактического окончания measure_n.</t>
-  </si>
-  <si>
-    <t>Ссылка (URL) на источник (желательно государственный портал или общепризнанный источник доподлинных новостей) о measure_n, start_date_n и end_date_n</t>
-  </si>
-  <si>
-    <t>Если источников несколько, то они записываются через точку с запятой</t>
-  </si>
-  <si>
-    <t>ID страны по кодировке V-Dem (для объединения с их данными)</t>
-  </si>
-  <si>
-    <t>ID страны по кодировке Correlates of War (для объединения с разными датасетами)</t>
-  </si>
-  <si>
-    <t>ID страны по кодировке V-Dem/ISO (в большинстве случаев) - для объединения с разными датасетами.</t>
-  </si>
-  <si>
-    <t>Название страны по кодировке V-Dem</t>
-  </si>
-  <si>
     <t>measure_11</t>
   </si>
   <si>
@@ -266,7 +236,40 @@
     <t>start_date_12</t>
   </si>
   <si>
-    <t>1) Ограничение на въезд и/или выезд ряда лиц (в т.ч. иностранных граждан или отмена рейсов); 2) Запрет на въезд и/или выезд любых граждан (своих и чужих); 3) ограничение количества собравшихся в общественных местах; 4) централизованное частичное или полное закрытие учебных заведений; 5) закрытие государственных учреждений (не образовательных); 6) комендантский час, карантин в отдельном регионе; 7) чрезвычайное положение в одном или ряде регионе или населённых пунктов; 8) чрезвычайное положение в стране; 9) запрет на собрания; 10) ограничение на ведение частного бизнеса (клубы, бары, рестораны); 11) карантин в стране вне зависимости от региона; 12) ограничение передвижения внутри страны.</t>
+    <t>Measure taken by national or regional government. _n is just a number. The rank does not matter because the data will be sorted in the code anyways (sorted by start_date_n).</t>
+  </si>
+  <si>
+    <t>1) Limitations on the entry to/departure from country for a number of people (including foreighners or cancellation of the flights); 2) Ban on the entry to/departure from country of all people with exception of emergency flights; 3) Limit on the number of people that can gather in the streets; 4) Centralised partial or full shitdown of education establishements; 5) Shutdown of government offices (not educational); 6) curfew or quarantine in one or several subnational administrative units or settlements; 7) Emergency in one or several subnational administrative units or settlements; 8) National emergency; 9) Ban on all gatherings in the streets; 10) Limits on the operation of the private business (clubs, barss, restaurants, and other places of leisure); 11) National quarantine; 12) Limitations on the movement within the country.</t>
+  </si>
+  <si>
+    <t>Date of the start of measure_n.</t>
+  </si>
+  <si>
+    <t>Format: yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>Date of factual end of measure_n.</t>
+  </si>
+  <si>
+    <t>Format: yyyy-mm-dd. Do not code anything if the date is not known.</t>
+  </si>
+  <si>
+    <t>URL to the source (preferrably government website or well-known source of non-fake news about measure_n, start_date_n, and end_date_n</t>
+  </si>
+  <si>
+    <t>Separate several sources with ;</t>
+  </si>
+  <si>
+    <t>country ID according to V-Dem Institute</t>
+  </si>
+  <si>
+    <t>country ID according to the Correlates of War</t>
+  </si>
+  <si>
+    <t>country ID according to V-Dem/ISO (in most cases)</t>
+  </si>
+  <si>
+    <t>country name according to V-Dem</t>
   </si>
 </sst>
 </file>
@@ -764,22 +767,22 @@
         <v>33</v>
       </c>
       <c r="AJ1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AK1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AL1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AM1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN1" t="s">
         <v>70</v>
       </c>
-      <c r="AN1" t="s">
-        <v>80</v>
-      </c>
       <c r="AO1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.35">
@@ -796,7 +799,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -873,7 +876,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -944,7 +947,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3">
         <v>10</v>
@@ -1015,7 +1018,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1038,7 +1041,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -1085,7 +1088,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -1168,7 +1171,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F8" s="3">
         <v>8</v>
@@ -1245,7 +1248,7 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F9" s="3">
         <v>11</v>
@@ -1325,6 +1328,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="26.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="71.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1332,88 +1336,92 @@
       <c r="A1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
-        <v>61</v>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
